--- a/reaction maps/PanZ sortase time course 1.5 eq gvseyg.xlsx
+++ b/reaction maps/PanZ sortase time course 1.5 eq gvseyg.xlsx
@@ -73,7 +73,7 @@
     <t>PanZ-OH</t>
   </si>
   <si>
-    <t>Unknown</t>
+    <t>PanZ-GVSEG</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
